--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_46.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_46.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yasuhiro Kato</t>
+          <t>Tsubasa Endo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
